--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgx03\src\DeepLerningKot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DL\DeepLerningKot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$3112</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9524,7 +9524,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
@@ -9556,12 +9556,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -9578,7 +9584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9591,7 +9597,10 @@
     <xf numFmtId="24" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9878,84 +9887,84 @@
   <dimension ref="A1:U3112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1850" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2916" sqref="M2916"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I260" sqref="I260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.58203125" style="1"/>
+    <col min="4" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>3070</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3069</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3068</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3093</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3094</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3095</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3096</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>3097</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>3098</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>3099</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>3084</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>3083</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>3082</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>3090</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>3086</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>3091</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>3085</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>3092</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>3089</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>3087</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>3088</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" hidden="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10011,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" hidden="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10025,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" hidden="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10039,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10053,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10081,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" hidden="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10669,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" hidden="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10683,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" hidden="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10697,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" hidden="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10767,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1">
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10850,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1">
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11537,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1">
+    <row r="112" spans="1:19">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11600,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1">
+    <row r="115" spans="1:15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -11841,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1">
+    <row r="132" spans="1:17">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11872,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1">
+    <row r="134" spans="1:17">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12131,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1">
+    <row r="151" spans="1:19">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12162,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1">
+    <row r="153" spans="1:19">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -12389,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1">
+    <row r="169" spans="1:17">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12670,7 +12679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1">
+    <row r="188" spans="1:12">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12917,7 +12926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1">
+    <row r="205" spans="1:19">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -13106,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1">
+    <row r="217" spans="1:14">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -13711,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:20" hidden="1">
+    <row r="260" spans="1:20">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14000,7 +14009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1">
+    <row r="280" spans="1:12">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -14034,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1">
+    <row r="282" spans="1:12">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -15381,7 +15390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:21" hidden="1">
+    <row r="378" spans="1:21">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -15486,7 +15495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:21" hidden="1">
+    <row r="384" spans="1:21">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -15669,7 +15678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:20" hidden="1">
+    <row r="396" spans="1:20">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -15700,7 +15709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:20" hidden="1">
+    <row r="398" spans="1:20">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -17325,7 +17334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1">
+    <row r="513" spans="1:12">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -18336,7 +18345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:20" hidden="1">
+    <row r="585" spans="1:20">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -20173,7 +20182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:20" hidden="1">
+    <row r="716" spans="1:20">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -20874,7 +20883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:20" hidden="1">
+    <row r="765" spans="1:20">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -21015,7 +21024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:12" hidden="1">
+    <row r="774" spans="1:12">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -21150,7 +21159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:12">
+    <row r="783" spans="1:12" hidden="1">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -21262,7 +21271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:17" hidden="1">
+    <row r="791" spans="1:17">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -21737,7 +21746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:10">
+    <row r="823" spans="1:10" hidden="1">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -24705,7 +24714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="1:17" hidden="1">
+    <row r="1035" spans="1:17">
       <c r="A1035" s="1">
         <v>1033</v>
       </c>
@@ -25356,7 +25365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1080" spans="1:19" hidden="1">
+    <row r="1080" spans="1:19">
       <c r="A1080" s="1">
         <v>1078</v>
       </c>
@@ -25813,7 +25822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1112" spans="1:14" hidden="1">
+    <row r="1112" spans="1:14">
       <c r="A1112" s="1">
         <v>1110</v>
       </c>
@@ -26320,7 +26329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1148" spans="1:10">
+    <row r="1148" spans="1:10" hidden="1">
       <c r="A1148" s="1">
         <v>1146</v>
       </c>
@@ -26530,7 +26539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1163" spans="1:17" hidden="1">
+    <row r="1163" spans="1:17">
       <c r="A1163" s="1">
         <v>1161</v>
       </c>
@@ -26713,7 +26722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1175" spans="1:10">
+    <row r="1175" spans="1:10" hidden="1">
       <c r="A1175" s="1">
         <v>1173</v>
       </c>
@@ -27217,7 +27226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1211" spans="1:11" hidden="1">
+    <row r="1211" spans="1:11">
       <c r="A1211" s="1">
         <v>1209</v>
       </c>
@@ -27346,7 +27355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1220" spans="1:20" hidden="1">
+    <row r="1220" spans="1:20">
       <c r="A1220" s="1">
         <v>1218</v>
       </c>
@@ -27377,7 +27386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1222" spans="1:20" hidden="1">
+    <row r="1222" spans="1:20">
       <c r="A1222" s="1">
         <v>1220</v>
       </c>
@@ -27826,7 +27835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1253" spans="1:21" hidden="1">
+    <row r="1253" spans="1:21">
       <c r="A1253" s="1">
         <v>1251</v>
       </c>
@@ -27857,7 +27866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1255" spans="1:21" hidden="1">
+    <row r="1255" spans="1:21">
       <c r="A1255" s="1">
         <v>1253</v>
       </c>
@@ -27914,7 +27923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1258" spans="1:21" hidden="1">
+    <row r="1258" spans="1:21">
       <c r="A1258" s="1">
         <v>1256</v>
       </c>
@@ -27949,7 +27958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1259" spans="1:21" hidden="1">
+    <row r="1259" spans="1:21">
       <c r="A1259" s="1">
         <v>1257</v>
       </c>
@@ -28258,7 +28267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1280" spans="1:13" hidden="1">
+    <row r="1280" spans="1:13">
       <c r="A1280" s="1">
         <v>1278</v>
       </c>
@@ -28289,7 +28298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1282" spans="1:21" hidden="1">
+    <row r="1282" spans="1:21">
       <c r="A1282" s="1">
         <v>1280</v>
       </c>
@@ -28326,7 +28335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1284" spans="1:21" hidden="1">
+    <row r="1284" spans="1:21">
       <c r="A1284" s="1">
         <v>1282</v>
       </c>
@@ -28399,7 +28408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1289" spans="1:21">
+    <row r="1289" spans="1:21" hidden="1">
       <c r="A1289" s="1">
         <v>1287</v>
       </c>
@@ -28455,7 +28464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1293" spans="1:21" hidden="1">
+    <row r="1293" spans="1:21">
       <c r="A1293" s="1">
         <v>1291</v>
       </c>
@@ -28878,7 +28887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1323" spans="1:15" hidden="1">
+    <row r="1323" spans="1:15">
       <c r="A1323" s="1">
         <v>1321</v>
       </c>
@@ -29153,7 +29162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1342" spans="1:13" hidden="1">
+    <row r="1342" spans="1:13">
       <c r="A1342" s="1">
         <v>1340</v>
       </c>
@@ -29246,7 +29255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1348" spans="1:19" hidden="1">
+    <row r="1348" spans="1:19">
       <c r="A1348" s="1">
         <v>1346</v>
       </c>
@@ -29507,7 +29516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1366" spans="1:17" hidden="1">
+    <row r="1366" spans="1:17">
       <c r="A1366" s="1">
         <v>1364</v>
       </c>
@@ -30144,7 +30153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1410" spans="1:14" hidden="1">
+    <row r="1410" spans="1:14">
       <c r="A1410" s="1">
         <v>1408</v>
       </c>
@@ -30315,7 +30324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1422" spans="1:14" hidden="1">
+    <row r="1422" spans="1:14">
       <c r="A1422" s="1">
         <v>1420</v>
       </c>
@@ -30346,7 +30355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1424" spans="1:14" hidden="1">
+    <row r="1424" spans="1:14">
       <c r="A1424" s="1">
         <v>1422</v>
       </c>
@@ -30369,7 +30378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1425" spans="1:13" hidden="1">
+    <row r="1425" spans="1:13">
       <c r="A1425" s="1">
         <v>1423</v>
       </c>
@@ -30722,7 +30731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1450" spans="1:17" hidden="1">
+    <row r="1450" spans="1:17">
       <c r="A1450" s="1">
         <v>1448</v>
       </c>
@@ -30927,7 +30936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1464" spans="1:11" hidden="1">
+    <row r="1464" spans="1:11">
       <c r="A1464" s="1">
         <v>1462</v>
       </c>
@@ -31140,7 +31149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1479" spans="1:12" hidden="1">
+    <row r="1479" spans="1:12">
       <c r="A1479" s="1">
         <v>1477</v>
       </c>
@@ -32291,7 +32300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1561" spans="1:19" hidden="1">
+    <row r="1561" spans="1:19">
       <c r="A1561" s="1">
         <v>1559</v>
       </c>
@@ -32590,7 +32599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1580" spans="1:17" hidden="1">
+    <row r="1580" spans="1:17">
       <c r="A1580" s="1">
         <v>1578</v>
       </c>
@@ -32703,7 +32712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1587" spans="1:20" hidden="1">
+    <row r="1587" spans="1:20">
       <c r="A1587" s="1">
         <v>1585</v>
       </c>
@@ -32944,7 +32953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1604" spans="1:10">
+    <row r="1604" spans="1:10" hidden="1">
       <c r="A1604" s="1">
         <v>1602</v>
       </c>
@@ -33266,7 +33275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1627" spans="1:12" hidden="1">
+    <row r="1627" spans="1:12">
       <c r="A1627" s="1">
         <v>1625</v>
       </c>
@@ -33787,7 +33796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1664" spans="1:13" hidden="1">
+    <row r="1664" spans="1:13">
       <c r="A1664" s="1">
         <v>1662</v>
       </c>
@@ -34504,7 +34513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1715" spans="1:17" hidden="1">
+    <row r="1715" spans="1:17">
       <c r="A1715" s="1">
         <v>1713</v>
       </c>
@@ -34693,7 +34702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1727" spans="1:17" hidden="1">
+    <row r="1727" spans="1:17">
       <c r="A1727" s="1">
         <v>1725</v>
       </c>
@@ -34806,7 +34815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1734" spans="1:17">
+    <row r="1734" spans="1:17" hidden="1">
       <c r="A1734" s="1">
         <v>1732</v>
       </c>
@@ -34904,7 +34913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1741" spans="1:17" hidden="1">
+    <row r="1741" spans="1:17">
       <c r="A1741" s="1">
         <v>1739</v>
       </c>
@@ -35045,7 +35054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1750" spans="1:21" hidden="1">
+    <row r="1750" spans="1:21">
       <c r="A1750" s="1">
         <v>1748</v>
       </c>
@@ -35130,7 +35139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1755" spans="1:21" hidden="1">
+    <row r="1755" spans="1:21">
       <c r="A1755" s="1">
         <v>1753</v>
       </c>
@@ -35517,7 +35526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1782" spans="1:10">
+    <row r="1782" spans="1:10" hidden="1">
       <c r="A1782" s="1">
         <v>1780</v>
       </c>
@@ -35741,7 +35750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1798" spans="1:17" hidden="1">
+    <row r="1798" spans="1:17">
       <c r="A1798" s="1">
         <v>1796</v>
       </c>
@@ -35952,7 +35961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1812" spans="1:19" hidden="1">
+    <row r="1812" spans="1:19">
       <c r="A1812" s="1">
         <v>1810</v>
       </c>
@@ -36067,7 +36076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1820" spans="1:19" hidden="1">
+    <row r="1820" spans="1:19">
       <c r="A1820" s="1">
         <v>1818</v>
       </c>
@@ -36354,7 +36363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1839" spans="1:17" hidden="1">
+    <row r="1839" spans="1:17">
       <c r="A1839" s="1">
         <v>1837</v>
       </c>
@@ -36371,7 +36380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1840" spans="1:17" hidden="1">
+    <row r="1840" spans="1:17">
       <c r="A1840" s="1">
         <v>1838</v>
       </c>
@@ -36538,7 +36547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1850" spans="1:15">
+    <row r="1850" spans="1:15" hidden="1">
       <c r="A1850" s="1">
         <v>1848</v>
       </c>
@@ -36608,7 +36617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1855" spans="1:15" hidden="1">
+    <row r="1855" spans="1:15">
       <c r="A1855" s="1">
         <v>1853</v>
       </c>
@@ -36651,7 +36660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1857" spans="1:19" hidden="1">
+    <row r="1857" spans="1:19">
       <c r="A1857" s="1">
         <v>1855</v>
       </c>
@@ -36736,7 +36745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1862" spans="1:19" hidden="1">
+    <row r="1862" spans="1:19">
       <c r="A1862" s="1">
         <v>1860</v>
       </c>
@@ -36891,7 +36900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1872" spans="1:19" hidden="1">
+    <row r="1872" spans="1:19">
       <c r="A1872" s="1">
         <v>1870</v>
       </c>
@@ -37020,7 +37029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1881" spans="1:17" hidden="1">
+    <row r="1881" spans="1:17">
       <c r="A1881" s="1">
         <v>1879</v>
       </c>
@@ -37147,7 +37156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1889" spans="1:17" hidden="1">
+    <row r="1889" spans="1:17">
       <c r="A1889" s="1">
         <v>1887</v>
       </c>
@@ -37230,7 +37239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1893" spans="1:17">
+    <row r="1893" spans="1:17" hidden="1">
       <c r="A1893" s="1">
         <v>1891</v>
       </c>
@@ -39974,7 +39983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2089" spans="1:12" hidden="1">
+    <row r="2089" spans="1:12">
       <c r="A2089" s="1">
         <v>2087</v>
       </c>
@@ -40669,7 +40678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2138" spans="1:12" hidden="1">
+    <row r="2138" spans="1:12">
       <c r="A2138" s="1">
         <v>2136</v>
       </c>
@@ -40860,7 +40869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2151" spans="1:15" hidden="1">
+    <row r="2151" spans="1:15">
       <c r="A2151" s="1">
         <v>2149</v>
       </c>
@@ -40891,7 +40900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2153" spans="1:15">
+    <row r="2153" spans="1:15" hidden="1">
       <c r="A2153" s="1">
         <v>2151</v>
       </c>
@@ -42795,7 +42804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2289" spans="1:10">
+    <row r="2289" spans="1:10" hidden="1">
       <c r="A2289" s="1">
         <v>2287</v>
       </c>
@@ -43047,7 +43056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2307" spans="1:17">
+    <row r="2307" spans="1:17" hidden="1">
       <c r="A2307" s="1">
         <v>2305</v>
       </c>
@@ -43117,7 +43126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2312" spans="1:17" hidden="1">
+    <row r="2312" spans="1:17">
       <c r="A2312" s="1">
         <v>2310</v>
       </c>
@@ -43336,7 +43345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2327" spans="1:12" hidden="1">
+    <row r="2327" spans="1:12">
       <c r="A2327" s="1">
         <v>2325</v>
       </c>
@@ -43737,7 +43746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2355" spans="1:12" hidden="1">
+    <row r="2355" spans="1:12">
       <c r="A2355" s="1">
         <v>2353</v>
       </c>
@@ -44390,7 +44399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2401" spans="1:17" hidden="1">
+    <row r="2401" spans="1:17">
       <c r="A2401" s="1">
         <v>2399</v>
       </c>
@@ -45833,7 +45842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2503" spans="1:19" hidden="1">
+    <row r="2503" spans="1:19">
       <c r="A2503" s="1">
         <v>2501</v>
       </c>
@@ -46052,7 +46061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2518" spans="1:17" hidden="1">
+    <row r="2518" spans="1:17">
       <c r="A2518" s="1">
         <v>2516</v>
       </c>
@@ -47621,7 +47630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2629" spans="1:10">
+    <row r="2629" spans="1:10" hidden="1">
       <c r="A2629" s="1">
         <v>2627</v>
       </c>
@@ -48013,7 +48022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2657" spans="1:15" hidden="1">
+    <row r="2657" spans="1:15">
       <c r="A2657" s="1">
         <v>2655</v>
       </c>
@@ -48646,7 +48655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2702" spans="1:19" hidden="1">
+    <row r="2702" spans="1:19">
       <c r="A2702" s="1">
         <v>2700</v>
       </c>
@@ -48695,7 +48704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2704" spans="1:19" hidden="1">
+    <row r="2704" spans="1:19">
       <c r="A2704" s="1">
         <v>2702</v>
       </c>
@@ -48718,7 +48727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2705" spans="1:21" hidden="1">
+    <row r="2705" spans="1:21">
       <c r="A2705" s="1">
         <v>2703</v>
       </c>
@@ -48749,7 +48758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2707" spans="1:21" hidden="1">
+    <row r="2707" spans="1:21">
       <c r="A2707" s="1">
         <v>2705</v>
       </c>
@@ -48786,7 +48795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2709" spans="1:21" hidden="1">
+    <row r="2709" spans="1:21">
       <c r="A2709" s="1">
         <v>2707</v>
       </c>
@@ -48809,7 +48818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2710" spans="1:21" hidden="1">
+    <row r="2710" spans="1:21">
       <c r="A2710" s="1">
         <v>2708</v>
       </c>
@@ -48860,7 +48869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2713" spans="1:21" hidden="1">
+    <row r="2713" spans="1:21">
       <c r="A2713" s="1">
         <v>2711</v>
       </c>
@@ -48919,7 +48928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2717" spans="1:21">
+    <row r="2717" spans="1:21" hidden="1">
       <c r="A2717" s="1">
         <v>2715</v>
       </c>
@@ -48947,7 +48956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2719" spans="1:21" hidden="1">
+    <row r="2719" spans="1:21">
       <c r="A2719" s="1">
         <v>2717</v>
       </c>
@@ -49012,7 +49021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2723" spans="1:17" hidden="1">
+    <row r="2723" spans="1:17">
       <c r="A2723" s="1">
         <v>2721</v>
       </c>
@@ -49097,7 +49106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2728" spans="1:17" hidden="1">
+    <row r="2728" spans="1:17">
       <c r="A2728" s="1">
         <v>2726</v>
       </c>
@@ -49456,7 +49465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2753" spans="1:17" hidden="1">
+    <row r="2753" spans="1:17">
       <c r="A2753" s="1">
         <v>2751</v>
       </c>
@@ -49639,7 +49648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2765" spans="1:17" hidden="1">
+    <row r="2765" spans="1:17">
       <c r="A2765" s="1">
         <v>2763</v>
       </c>
@@ -49788,7 +49797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2775" spans="1:10">
+    <row r="2775" spans="1:10" hidden="1">
       <c r="A2775" s="1">
         <v>2773</v>
       </c>
@@ -50614,7 +50623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2834" spans="1:11" hidden="1">
+    <row r="2834" spans="1:11">
       <c r="A2834" s="1">
         <v>2832</v>
       </c>
@@ -51401,7 +51410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2890" spans="1:15" hidden="1">
+    <row r="2890" spans="1:15">
       <c r="A2890" s="1">
         <v>2888</v>
       </c>
@@ -51774,7 +51783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2916" spans="1:17">
+    <row r="2916" spans="1:17" hidden="1">
       <c r="A2916" s="1">
         <v>2914</v>
       </c>
@@ -51900,7 +51909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2925" spans="1:17" hidden="1">
+    <row r="2925" spans="1:17">
       <c r="A2925" s="1">
         <v>2923</v>
       </c>
@@ -52520,7 +52529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2968" spans="1:12" hidden="1">
+    <row r="2968" spans="1:12">
       <c r="A2968" s="1">
         <v>2966</v>
       </c>
@@ -52705,7 +52714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2981" spans="1:21" hidden="1">
+    <row r="2981" spans="1:21">
       <c r="A2981" s="1">
         <v>2979</v>
       </c>
@@ -52843,7 +52852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2990" spans="1:21" hidden="1">
+    <row r="2990" spans="1:21">
       <c r="A2990" s="1">
         <v>2988</v>
       </c>
@@ -52884,7 +52893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2991" spans="1:21" hidden="1">
+    <row r="2991" spans="1:21">
       <c r="A2991" s="1">
         <v>2989</v>
       </c>
@@ -52927,7 +52936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2993" spans="1:21" hidden="1">
+    <row r="2993" spans="1:21">
       <c r="A2993" s="1">
         <v>2991</v>
       </c>
@@ -52986,7 +52995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2997" spans="1:21" hidden="1">
+    <row r="2997" spans="1:21">
       <c r="A2997" s="1">
         <v>2995</v>
       </c>
@@ -53049,7 +53058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3000" spans="1:21" hidden="1">
+    <row r="3000" spans="1:21">
       <c r="A3000" s="1">
         <v>2998</v>
       </c>
@@ -53154,7 +53163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3006" spans="1:21" hidden="1">
+    <row r="3006" spans="1:21">
       <c r="A3006" s="1">
         <v>3004</v>
       </c>
@@ -53317,7 +53326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3017" spans="1:21" hidden="1">
+    <row r="3017" spans="1:21">
       <c r="A3017" s="1">
         <v>3015</v>
       </c>
@@ -53686,7 +53695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3041" spans="1:14" hidden="1">
+    <row r="3041" spans="1:14">
       <c r="A3041" s="1">
         <v>3039</v>
       </c>
@@ -53941,7 +53950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3059" spans="1:20" hidden="1">
+    <row r="3059" spans="1:20">
       <c r="A3059" s="1">
         <v>3057</v>
       </c>
@@ -54068,7 +54077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3067" spans="1:20" hidden="1">
+    <row r="3067" spans="1:20">
       <c r="A3067" s="1">
         <v>3065</v>
       </c>
@@ -54511,7 +54520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3098" spans="1:13" hidden="1">
+    <row r="3098" spans="1:13">
       <c r="A3098" s="1">
         <v>3096</v>
       </c>
@@ -54542,7 +54551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3100" spans="1:13" hidden="1">
+    <row r="3100" spans="1:13">
       <c r="A3100" s="1">
         <v>3098</v>
       </c>
@@ -54643,7 +54652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3107" spans="1:10">
+    <row r="3107" spans="1:10" hidden="1">
       <c r="A3107" s="1">
         <v>3105</v>
       </c>
@@ -54657,7 +54666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3108" spans="1:10">
+    <row r="3108" spans="1:10" hidden="1">
       <c r="A3108" s="1">
         <v>3106</v>
       </c>
@@ -54671,7 +54680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3109" spans="1:10">
+    <row r="3109" spans="1:10" hidden="1">
       <c r="A3109" s="1">
         <v>3107</v>
       </c>
@@ -54685,7 +54694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3110" spans="1:10">
+    <row r="3110" spans="1:10" hidden="1">
       <c r="A3110" s="1">
         <v>3108</v>
       </c>
@@ -54723,12 +54732,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U3112">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="40"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="9">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
